--- a/AXD_crosses.xlsx
+++ b/AXD_crosses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -54,9 +54,6 @@
     <t>A2-26A</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>A2-26B</t>
   </si>
   <si>
@@ -84,7 +81,19 @@
     <t>A1-JMS</t>
   </si>
   <si>
-    <t>A2-26</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>A1-73 #3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +250,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF41E739"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -420,6 +447,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -787,8 +823,12 @@
       <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
         <v>40826</v>
       </c>
@@ -797,145 +837,189 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="H2" s="35">
+        <v>43536</v>
+      </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="7">
-        <v>40823</v>
-      </c>
-      <c r="E3" s="7">
-        <v>40890</v>
-      </c>
-      <c r="F3" s="8">
-        <v>41254</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="35">
+        <v>43544</v>
+      </c>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="7">
-        <v>40823</v>
-      </c>
-      <c r="E4" s="8">
-        <v>40888</v>
-      </c>
-      <c r="F4" s="8">
-        <v>40888</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="26">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="35">
+        <v>43553</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="7">
-        <v>40823</v>
-      </c>
-      <c r="E5" s="8">
-        <v>40888</v>
-      </c>
-      <c r="F5" s="8">
-        <v>40888</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="26">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="35">
+        <v>43556</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26">
+        <v>10</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="35">
+        <v>43564</v>
+      </c>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="31"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7">
+        <v>40823</v>
+      </c>
+      <c r="E7" s="7">
+        <v>40890</v>
+      </c>
+      <c r="F7" s="8">
+        <v>41254</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="26">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40823</v>
+      </c>
+      <c r="E8" s="8">
+        <v>40888</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40888</v>
+      </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="35">
+        <v>43544</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="26">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>40823</v>
+      </c>
+      <c r="E9" s="8">
+        <v>40888</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40888</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="35">
+        <v>43556</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="26">
+        <v>9</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="35">
+        <v>43563</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="12">
-        <v>41219</v>
-      </c>
-      <c r="E11" s="12">
-        <v>41316</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -951,38 +1035,58 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="12">
+        <v>41219</v>
+      </c>
+      <c r="E13" s="12">
+        <v>41316</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="26">
+        <v>4</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="37">
+        <v>43552</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="26">
+        <v>5</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="37">
+        <v>43553</v>
+      </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1008,121 +1112,123 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="12">
-        <v>41016</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24"/>
+      <c r="A20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="21"/>
       <c r="D20" s="12">
-        <v>41040</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15">
-        <v>41201</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+        <v>41016</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1001</v>
+      </c>
       <c r="D21" s="12">
         <v>41040</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="F21" s="15">
+        <v>41201</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="36">
+        <v>43549</v>
+      </c>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1002</v>
+      </c>
       <c r="D22" s="12">
         <v>41040</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="35">
+        <v>43556</v>
+      </c>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="12">
-        <v>41040</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="A23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1003</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="14"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="35">
+        <v>43563</v>
+      </c>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="30"/>
       <c r="B24" s="24"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="12">
-        <v>41040</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="14"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>19</v>
+      <c r="A25" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="21"/>
@@ -1138,8 +1244,8 @@
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>20</v>
+      <c r="A26" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="21"/>
@@ -1155,8 +1261,8 @@
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>20</v>
+      <c r="A27" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="21"/>
@@ -1172,21 +1278,116 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="32"/>
       <c r="B28" s="24"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="12">
-        <v>41040</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="14"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="12">
+        <v>41040</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="12">
+        <v>41040</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="12">
+        <v>41040</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="12">
+        <v>41040</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
